--- a/CONTENT  SHEET__GYAAN CONNECT.xlsx
+++ b/CONTENT  SHEET__GYAAN CONNECT.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SIH 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C826BC-82ED-4B22-9D23-6FFA75D42417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -24,19 +33,19 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>AREA OF EXPERTISE</t>
     </r>
@@ -420,51 +429,64 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -472,7 +494,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -488,56 +510,47 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -727,28 +740,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.63"/>
-    <col customWidth="1" min="2" max="2" width="55.75"/>
-    <col customWidth="1" min="3" max="3" width="72.88"/>
-    <col customWidth="1" min="4" max="4" width="29.75"/>
-    <col customWidth="1" min="5" max="5" width="22.63"/>
-    <col customWidth="1" min="6" max="6" width="23.88"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.77734375" customWidth="1"/>
+    <col min="3" max="3" width="72.88671875" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.75" customHeight="1">
+    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,67 +789,90 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="15.0" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="20.25" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="20.25" customHeight="1">
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>11</v>
@@ -840,15 +881,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
@@ -863,41 +904,41 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>22</v>
@@ -909,67 +950,67 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>11</v>
@@ -978,21 +1019,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>11</v>
@@ -1001,21 +1042,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>11</v>
@@ -1024,41 +1065,41 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>53</v>
+        <v>29</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>22</v>
@@ -1067,24 +1108,24 @@
         <v>11</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>11</v>
@@ -1093,21 +1134,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>11</v>
@@ -1116,18 +1157,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>22</v>
@@ -1139,21 +1180,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>11</v>
@@ -1162,21 +1203,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>11</v>
@@ -1185,21 +1226,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>11</v>
@@ -1208,21 +1249,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>11</v>
@@ -1231,21 +1272,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>11</v>
@@ -1254,21 +1295,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>11</v>
@@ -1277,41 +1318,41 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>10</v>
@@ -1323,18 +1364,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>10</v>
@@ -1346,15 +1387,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>84</v>
@@ -1369,7 +1410,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>84</v>
       </c>
@@ -1377,13 +1418,13 @@
         <v>86</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>11</v>
@@ -1392,21 +1433,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>11</v>
@@ -1415,7 +1456,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>56</v>
       </c>
@@ -1423,13 +1464,13 @@
         <v>86</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>11</v>
@@ -1438,21 +1479,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>11</v>
@@ -1461,18 +1502,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>10</v>
@@ -1484,7 +1525,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -1492,7 +1533,7 @@
         <v>86</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>82</v>
@@ -1507,30 +1548,30 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
@@ -1538,7 +1579,7 @@
         <v>99</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>101</v>
@@ -1553,7 +1594,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>48</v>
       </c>
@@ -1561,10 +1602,10 @@
         <v>99</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>10</v>
@@ -1576,9 +1617,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>99</v>
@@ -1587,19 +1628,19 @@
         <v>99</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>104</v>
       </c>
@@ -1610,7 +1651,7 @@
         <v>99</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>10</v>
@@ -1622,9 +1663,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>99</v>
@@ -1633,21 +1674,21 @@
         <v>99</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>99</v>
@@ -1656,7 +1697,7 @@
         <v>99</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>10</v>
@@ -1668,7 +1709,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>107</v>
       </c>
@@ -1676,7 +1717,7 @@
         <v>99</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>107</v>
@@ -1691,18 +1732,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>10</v>
@@ -1714,7 +1755,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>109</v>
       </c>
@@ -1722,7 +1763,7 @@
         <v>99</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>109</v>
@@ -1737,7 +1778,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>109</v>
       </c>
@@ -1745,7 +1786,7 @@
         <v>99</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>109</v>
@@ -1760,220 +1801,198 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="G47" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" s="4" t="s">
+    <row r="49" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="4" t="s">
+      <c r="F49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
+    <row r="50" spans="1:7" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
-    <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="C4"/>
-    <hyperlink r:id="rId5" ref="B5"/>
-    <hyperlink r:id="rId6" ref="C5"/>
-    <hyperlink r:id="rId7" ref="B6"/>
-    <hyperlink r:id="rId8" ref="C6"/>
-    <hyperlink r:id="rId9" ref="B7"/>
-    <hyperlink r:id="rId10" ref="C7"/>
-    <hyperlink r:id="rId11" ref="B8"/>
-    <hyperlink r:id="rId12" ref="C8"/>
-    <hyperlink r:id="rId13" ref="B9"/>
-    <hyperlink r:id="rId14" ref="C9"/>
-    <hyperlink r:id="rId15" ref="B10"/>
-    <hyperlink r:id="rId16" ref="C10"/>
-    <hyperlink r:id="rId17" ref="B11"/>
-    <hyperlink r:id="rId18" ref="C11"/>
-    <hyperlink r:id="rId19" ref="B12"/>
-    <hyperlink r:id="rId20" ref="C12"/>
-    <hyperlink r:id="rId21" ref="B13"/>
-    <hyperlink r:id="rId22" ref="C13"/>
-    <hyperlink r:id="rId23" ref="B14"/>
-    <hyperlink r:id="rId24" ref="C14"/>
-    <hyperlink r:id="rId25" ref="B15"/>
-    <hyperlink r:id="rId26" ref="C15"/>
-    <hyperlink r:id="rId27" ref="B16"/>
-    <hyperlink r:id="rId28" ref="C16"/>
-    <hyperlink r:id="rId29" ref="B17"/>
-    <hyperlink r:id="rId30" ref="C17"/>
-    <hyperlink r:id="rId31" ref="B18"/>
-    <hyperlink r:id="rId32" ref="C18"/>
-    <hyperlink r:id="rId33" ref="B19"/>
-    <hyperlink r:id="rId34" ref="C19"/>
-    <hyperlink r:id="rId35" ref="B20"/>
-    <hyperlink r:id="rId36" ref="C20"/>
-    <hyperlink r:id="rId37" ref="B21"/>
-    <hyperlink r:id="rId38" ref="C21"/>
-    <hyperlink r:id="rId39" ref="B22"/>
-    <hyperlink r:id="rId40" ref="C22"/>
-    <hyperlink r:id="rId41" ref="B23"/>
-    <hyperlink r:id="rId42" ref="C23"/>
-    <hyperlink r:id="rId43" ref="B24"/>
-    <hyperlink r:id="rId44" ref="C24"/>
-    <hyperlink r:id="rId45" ref="B25"/>
-    <hyperlink r:id="rId46" ref="C25"/>
-    <hyperlink r:id="rId47" ref="B26"/>
-    <hyperlink r:id="rId48" ref="C26"/>
-    <hyperlink r:id="rId49" ref="B27"/>
-    <hyperlink r:id="rId50" ref="C27"/>
-    <hyperlink r:id="rId51" ref="B28"/>
-    <hyperlink r:id="rId52" ref="C28"/>
-    <hyperlink r:id="rId53" ref="B29"/>
-    <hyperlink r:id="rId54" ref="C29"/>
-    <hyperlink r:id="rId55" ref="B30"/>
-    <hyperlink r:id="rId56" ref="C30"/>
-    <hyperlink r:id="rId57" ref="B31"/>
-    <hyperlink r:id="rId58" ref="C31"/>
-    <hyperlink r:id="rId59" ref="B32"/>
-    <hyperlink r:id="rId60" ref="C32"/>
-    <hyperlink r:id="rId61" ref="B33"/>
-    <hyperlink r:id="rId62" ref="C33"/>
-    <hyperlink r:id="rId63" ref="B34"/>
-    <hyperlink r:id="rId64" ref="C34"/>
-    <hyperlink r:id="rId65" ref="B35"/>
-    <hyperlink r:id="rId66" ref="C35"/>
-    <hyperlink r:id="rId67" ref="B36"/>
-    <hyperlink r:id="rId68" ref="C36"/>
-    <hyperlink r:id="rId69" ref="B37"/>
-    <hyperlink r:id="rId70" ref="C37"/>
-    <hyperlink r:id="rId71" ref="B38"/>
-    <hyperlink r:id="rId72" ref="C38"/>
-    <hyperlink r:id="rId73" ref="B39"/>
-    <hyperlink r:id="rId74" ref="C39"/>
-    <hyperlink r:id="rId75" ref="B40"/>
-    <hyperlink r:id="rId76" ref="C40"/>
-    <hyperlink r:id="rId77" ref="B41"/>
-    <hyperlink r:id="rId78" ref="C41"/>
-    <hyperlink r:id="rId79" ref="B42"/>
-    <hyperlink r:id="rId80" ref="C42"/>
-    <hyperlink r:id="rId81" ref="B43"/>
-    <hyperlink r:id="rId82" ref="C43"/>
-    <hyperlink r:id="rId83" ref="B44"/>
-    <hyperlink r:id="rId84" ref="C44"/>
-    <hyperlink r:id="rId85" ref="B45"/>
-    <hyperlink r:id="rId86" ref="C45"/>
-    <hyperlink r:id="rId87" ref="B46"/>
-    <hyperlink r:id="rId88" ref="C46"/>
-    <hyperlink r:id="rId89" ref="B47"/>
-    <hyperlink r:id="rId90" ref="C47"/>
-    <hyperlink r:id="rId91" ref="B48"/>
-    <hyperlink r:id="rId92" ref="C48"/>
-    <hyperlink r:id="rId93" ref="B49"/>
-    <hyperlink r:id="rId94" ref="C49"/>
-    <hyperlink r:id="rId95" ref="B50"/>
-    <hyperlink r:id="rId96" ref="C50"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C39" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B40" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B41" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C41" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B42" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C42" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B43" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C43" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B44" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C44" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B45" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C45" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B46" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C46" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B47" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C47" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B48" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C48" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B49" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C49" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
   </hyperlinks>
-  <drawing r:id="rId97"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CONTENT  SHEET__GYAAN CONNECT.xlsx
+++ b/CONTENT  SHEET__GYAAN CONNECT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SIH 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C826BC-82ED-4B22-9D23-6FFA75D42417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FC2D3E-21F8-4887-BB61-14050912C8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,17 +420,17 @@
     <t>python programming</t>
   </si>
   <si>
-    <t>https://www.youtube.com/@KevinStratvert</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=b093aqAZiPU</t>
+    <t>https://www.youtube.com/watch?v=6i3EGqOBRiU&amp;list=PLdo5W4Nhv31bZSiqiOL5ta39vSnBxpOPT</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@JennyslecturesCSIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -488,6 +488,13 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -518,10 +525,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -532,8 +540,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -753,14 +763,14 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.6640625" customWidth="1"/>
     <col min="2" max="2" width="55.77734375" customWidth="1"/>
-    <col min="3" max="3" width="72.88671875" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" customWidth="1"/>
     <col min="4" max="4" width="29.77734375" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="23.88671875" customWidth="1"/>
@@ -1874,11 +1884,11 @@
       <c r="A49" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>16</v>
